--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angpt2-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.76539982035746</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H2">
-        <v>6.76539982035746</v>
+        <v>24.723962</v>
       </c>
       <c r="I2">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J2">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.6151178875834</v>
+        <v>63.565581</v>
       </c>
       <c r="N2">
-        <v>53.6151178875834</v>
+        <v>190.696743</v>
       </c>
       <c r="O2">
-        <v>0.9921684730173854</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="P2">
-        <v>0.9921684730173854</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="Q2">
-        <v>362.7277089251008</v>
+        <v>523.8643363839739</v>
       </c>
       <c r="R2">
-        <v>362.7277089251008</v>
+        <v>4714.779027455766</v>
       </c>
       <c r="S2">
-        <v>0.386366220335219</v>
+        <v>0.4145692917966138</v>
       </c>
       <c r="T2">
-        <v>0.386366220335219</v>
+        <v>0.4145692917966138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.76539982035746</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H3">
-        <v>6.76539982035746</v>
+        <v>24.723962</v>
       </c>
       <c r="I3">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J3">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.141152740756</v>
+        <v>0.03515933333333333</v>
       </c>
       <c r="N3">
-        <v>0.141152740756</v>
+        <v>0.105478</v>
       </c>
       <c r="O3">
-        <v>0.002612086008124448</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="P3">
-        <v>0.002612086008124448</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="Q3">
-        <v>0.9549547269536055</v>
+        <v>0.2897593404262221</v>
       </c>
       <c r="R3">
-        <v>0.9549547269536055</v>
+        <v>2.607834063836</v>
       </c>
       <c r="S3">
-        <v>0.00101718793289239</v>
+        <v>0.0002293061699544771</v>
       </c>
       <c r="T3">
-        <v>0.00101718793289239</v>
+        <v>0.0002293061699544771</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.76539982035746</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H4">
-        <v>6.76539982035746</v>
+        <v>24.723962</v>
       </c>
       <c r="I4">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J4">
-        <v>0.389415941790814</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.282049823961368</v>
+        <v>0.03516833333333334</v>
       </c>
       <c r="N4">
-        <v>0.282049823961368</v>
+        <v>0.105505</v>
       </c>
       <c r="O4">
-        <v>0.005219440974490156</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="P4">
-        <v>0.005219440974490156</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="Q4">
-        <v>1.908179828360092</v>
+        <v>0.2898335123122222</v>
       </c>
       <c r="R4">
-        <v>1.908179828360092</v>
+        <v>2.60850161081</v>
       </c>
       <c r="S4">
-        <v>0.002032533522702648</v>
+        <v>0.0002293648671860208</v>
       </c>
       <c r="T4">
-        <v>0.002032533522702648</v>
+        <v>0.0002293648671860208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.8227326306298</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H5">
-        <v>1.8227326306298</v>
+        <v>24.723962</v>
       </c>
       <c r="I5">
-        <v>0.1049163630882126</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J5">
-        <v>0.1049163630882126</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.6151178875834</v>
+        <v>0.1628933333333333</v>
       </c>
       <c r="N5">
-        <v>53.6151178875834</v>
+        <v>0.48868</v>
       </c>
       <c r="O5">
-        <v>0.9921684730173854</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="P5">
-        <v>0.9921684730173854</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="Q5">
-        <v>97.72602486876174</v>
+        <v>1.342456194462222</v>
       </c>
       <c r="R5">
-        <v>97.72602486876174</v>
+        <v>12.08210575016</v>
       </c>
       <c r="S5">
-        <v>0.1040947077597695</v>
+        <v>0.001062376411510968</v>
       </c>
       <c r="T5">
-        <v>0.1040947077597695</v>
+        <v>0.001062376411510968</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.8227326306298</v>
+        <v>8.241320666666665</v>
       </c>
       <c r="H6">
-        <v>1.8227326306298</v>
+        <v>24.723962</v>
       </c>
       <c r="I6">
-        <v>0.1049163630882126</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="J6">
-        <v>0.1049163630882126</v>
+        <v>0.4192178407884359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.141152740756</v>
+        <v>0.4795373333333333</v>
       </c>
       <c r="N6">
-        <v>0.141152740756</v>
+        <v>1.438612</v>
       </c>
       <c r="O6">
-        <v>0.002612086008124448</v>
+        <v>0.007460325489222087</v>
       </c>
       <c r="P6">
-        <v>0.002612086008124448</v>
+        <v>0.007460325489222088</v>
       </c>
       <c r="Q6">
-        <v>0.2572837064787901</v>
+        <v>3.952020935638221</v>
       </c>
       <c r="R6">
-        <v>0.2572837064787901</v>
+        <v>35.56818842074399</v>
       </c>
       <c r="S6">
-        <v>0.0002740505640460244</v>
+        <v>0.003127501543170615</v>
       </c>
       <c r="T6">
-        <v>0.0002740505640460244</v>
+        <v>0.003127501543170616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.8227326306298</v>
+        <v>1.857387</v>
       </c>
       <c r="H7">
-        <v>1.8227326306298</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I7">
-        <v>0.1049163630882126</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J7">
-        <v>0.1049163630882126</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.282049823961368</v>
+        <v>63.565581</v>
       </c>
       <c r="N7">
-        <v>0.282049823961368</v>
+        <v>190.696743</v>
       </c>
       <c r="O7">
-        <v>0.005219440974490156</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="P7">
-        <v>0.005219440974490156</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="Q7">
-        <v>0.5141014175977763</v>
+        <v>118.065883796847</v>
       </c>
       <c r="R7">
-        <v>0.5141014175977763</v>
+        <v>1062.592954171623</v>
       </c>
       <c r="S7">
-        <v>0.0005476047643971034</v>
+        <v>0.09343352168017052</v>
       </c>
       <c r="T7">
-        <v>0.0005476047643971034</v>
+        <v>0.09343352168017051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,122 +906,122 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21542797875845</v>
+        <v>1.857387</v>
       </c>
       <c r="H8">
-        <v>1.21542797875845</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I8">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J8">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>53.6151178875834</v>
+        <v>0.03515933333333333</v>
       </c>
       <c r="N8">
-        <v>53.6151178875834</v>
+        <v>0.105478</v>
       </c>
       <c r="O8">
-        <v>0.9921684730173854</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="P8">
-        <v>0.9921684730173854</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="Q8">
-        <v>65.16531436500152</v>
+        <v>0.065304488662</v>
       </c>
       <c r="R8">
-        <v>65.16531436500152</v>
+        <v>0.5877403979579999</v>
       </c>
       <c r="S8">
-        <v>0.06941205645075463</v>
+        <v>5.167986010008061E-05</v>
       </c>
       <c r="T8">
-        <v>0.06941205645075463</v>
+        <v>5.167986010008061E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21542797875845</v>
+        <v>1.857387</v>
       </c>
       <c r="H9">
-        <v>1.21542797875845</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I9">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J9">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.141152740756</v>
+        <v>0.03516833333333334</v>
       </c>
       <c r="N9">
-        <v>0.141152740756</v>
+        <v>0.105505</v>
       </c>
       <c r="O9">
-        <v>0.002612086008124448</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="P9">
-        <v>0.002612086008124448</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="Q9">
-        <v>0.1715609903932806</v>
+        <v>0.06532120514500001</v>
       </c>
       <c r="R9">
-        <v>0.1715609903932806</v>
+        <v>0.587890846305</v>
       </c>
       <c r="S9">
-        <v>0.0001827414056997389</v>
+        <v>5.169308898404411E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001827414056997389</v>
+        <v>5.169308898404411E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21542797875845</v>
+        <v>1.857387</v>
       </c>
       <c r="H10">
-        <v>1.21542797875845</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I10">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J10">
-        <v>0.06995994968441045</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.282049823961368</v>
+        <v>0.1628933333333333</v>
       </c>
       <c r="N10">
-        <v>0.282049823961368</v>
+        <v>0.48868</v>
       </c>
       <c r="O10">
-        <v>0.005219440974490156</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="P10">
-        <v>0.005219440974490156</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="Q10">
-        <v>0.3428112474465422</v>
+        <v>0.30255595972</v>
       </c>
       <c r="R10">
-        <v>0.3428112474465422</v>
+        <v>2.72300363748</v>
       </c>
       <c r="S10">
-        <v>0.0003651518279560815</v>
+        <v>0.0002394330005660649</v>
       </c>
       <c r="T10">
-        <v>0.0003651518279560815</v>
+        <v>0.0002394330005660649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.81703001645728</v>
+        <v>1.857387</v>
       </c>
       <c r="H11">
-        <v>1.81703001645728</v>
+        <v>5.572160999999999</v>
       </c>
       <c r="I11">
-        <v>0.1045881210141848</v>
+        <v>0.09448118804524665</v>
       </c>
       <c r="J11">
-        <v>0.1045881210141848</v>
+        <v>0.09448118804524663</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.6151178875834</v>
+        <v>0.4795373333333333</v>
       </c>
       <c r="N11">
-        <v>53.6151178875834</v>
+        <v>1.438612</v>
       </c>
       <c r="O11">
-        <v>0.9921684730173854</v>
+        <v>0.007460325489222087</v>
       </c>
       <c r="P11">
-        <v>0.9921684730173854</v>
+        <v>0.007460325489222088</v>
       </c>
       <c r="Q11">
-        <v>97.42027853763467</v>
+        <v>0.8906864089479999</v>
       </c>
       <c r="R11">
-        <v>97.42027853763467</v>
+        <v>8.016177680532</v>
       </c>
       <c r="S11">
-        <v>0.1037690363224012</v>
+        <v>0.0007048604154259386</v>
       </c>
       <c r="T11">
-        <v>0.1037690363224012</v>
+        <v>0.0007048604154259386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.81703001645728</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H12">
-        <v>1.81703001645728</v>
+        <v>4.41664</v>
       </c>
       <c r="I12">
-        <v>0.1045881210141848</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J12">
-        <v>0.1045881210141848</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.141152740756</v>
+        <v>63.565581</v>
       </c>
       <c r="N12">
-        <v>0.141152740756</v>
+        <v>190.696743</v>
       </c>
       <c r="O12">
-        <v>0.002612086008124448</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="P12">
-        <v>0.002612086008124448</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="Q12">
-        <v>0.2564787668588648</v>
+        <v>93.58209588928001</v>
       </c>
       <c r="R12">
-        <v>0.2564787668588648</v>
+        <v>842.23886300352</v>
       </c>
       <c r="S12">
-        <v>0.0002731931675171786</v>
+        <v>0.07405784384074839</v>
       </c>
       <c r="T12">
-        <v>0.0002731931675171786</v>
+        <v>0.07405784384074837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.81703001645728</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H13">
-        <v>1.81703001645728</v>
+        <v>4.41664</v>
       </c>
       <c r="I13">
-        <v>0.1045881210141848</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J13">
-        <v>0.1045881210141848</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.282049823961368</v>
+        <v>0.03515933333333333</v>
       </c>
       <c r="N13">
-        <v>0.282049823961368</v>
+        <v>0.105478</v>
       </c>
       <c r="O13">
-        <v>0.005219440974490156</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="P13">
-        <v>0.005219440974490156</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="Q13">
-        <v>0.5124929962742975</v>
+        <v>0.05176203932444445</v>
       </c>
       <c r="R13">
-        <v>0.5124929962742975</v>
+        <v>0.46585835392</v>
       </c>
       <c r="S13">
-        <v>0.0005458915242663709</v>
+        <v>4.096280371518699E-05</v>
       </c>
       <c r="T13">
-        <v>0.0005458915242663709</v>
+        <v>4.096280371518699E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.07730225099014</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H14">
-        <v>2.07730225099014</v>
+        <v>4.41664</v>
       </c>
       <c r="I14">
-        <v>0.1195693726805879</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J14">
-        <v>0.1195693726805879</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>53.6151178875834</v>
+        <v>0.03516833333333334</v>
       </c>
       <c r="N14">
-        <v>53.6151178875834</v>
+        <v>0.105505</v>
       </c>
       <c r="O14">
-        <v>0.9921684730173854</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="P14">
-        <v>0.9921684730173854</v>
+        <v>0.0005471257300372695</v>
       </c>
       <c r="Q14">
-        <v>111.3748050749787</v>
+        <v>0.05177528924444445</v>
       </c>
       <c r="R14">
-        <v>111.3748050749787</v>
+        <v>0.4659776032</v>
       </c>
       <c r="S14">
-        <v>0.1186329619121456</v>
+        <v>4.09732892733158E-05</v>
       </c>
       <c r="T14">
-        <v>0.1186329619121456</v>
+        <v>4.097328927331579E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.07730225099014</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H15">
-        <v>2.07730225099014</v>
+        <v>4.41664</v>
       </c>
       <c r="I15">
-        <v>0.1195693726805879</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J15">
-        <v>0.1195693726805879</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.141152740756</v>
+        <v>0.1628933333333333</v>
       </c>
       <c r="N15">
-        <v>0.141152740756</v>
+        <v>0.48868</v>
       </c>
       <c r="O15">
-        <v>0.002612086008124448</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="P15">
-        <v>0.002612086008124448</v>
+        <v>0.00253418702198581</v>
       </c>
       <c r="Q15">
-        <v>0.2932169061058665</v>
+        <v>0.2398137372444445</v>
       </c>
       <c r="R15">
-        <v>0.2932169061058665</v>
+        <v>2.1583236352</v>
       </c>
       <c r="S15">
-        <v>0.0003123254853791812</v>
+        <v>0.0001897808350512674</v>
       </c>
       <c r="T15">
-        <v>0.0003123254853791812</v>
+        <v>0.0001897808350512673</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1405,57 +1405,57 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.07730225099014</v>
+        <v>1.472213333333333</v>
       </c>
       <c r="H16">
-        <v>2.07730225099014</v>
+        <v>4.41664</v>
       </c>
       <c r="I16">
-        <v>0.1195693726805879</v>
+        <v>0.07488825150029911</v>
       </c>
       <c r="J16">
-        <v>0.1195693726805879</v>
+        <v>0.0748882515002991</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.282049823961368</v>
+        <v>0.4795373333333333</v>
       </c>
       <c r="N16">
-        <v>0.282049823961368</v>
+        <v>1.438612</v>
       </c>
       <c r="O16">
-        <v>0.005219440974490156</v>
+        <v>0.007460325489222087</v>
       </c>
       <c r="P16">
-        <v>0.005219440974490156</v>
+        <v>0.007460325489222088</v>
       </c>
       <c r="Q16">
-        <v>0.5859027342063226</v>
+        <v>0.7059812559644444</v>
       </c>
       <c r="R16">
-        <v>0.5859027342063226</v>
+        <v>6.35383130368</v>
       </c>
       <c r="S16">
-        <v>0.0006240852830631442</v>
+        <v>0.0005586907315109557</v>
       </c>
       <c r="T16">
-        <v>0.0006240852830631442</v>
+        <v>0.0005586907315109556</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.6753041710329</v>
+        <v>2.161562666666667</v>
       </c>
       <c r="H17">
-        <v>3.6753041710329</v>
+        <v>6.484688</v>
       </c>
       <c r="I17">
-        <v>0.2115502517417903</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="J17">
-        <v>0.2115502517417903</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.6151178875834</v>
+        <v>63.565581</v>
       </c>
       <c r="N17">
-        <v>53.6151178875834</v>
+        <v>190.696743</v>
       </c>
       <c r="O17">
-        <v>0.9921684730173854</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="P17">
-        <v>0.9921684730173854</v>
+        <v>0.9889113760447804</v>
       </c>
       <c r="Q17">
-        <v>197.0518664026559</v>
+        <v>137.400986774576</v>
       </c>
       <c r="R17">
-        <v>197.0518664026559</v>
+        <v>1236.608880971184</v>
       </c>
       <c r="S17">
-        <v>0.2098934902370956</v>
+        <v>0.1087346967966542</v>
       </c>
       <c r="T17">
-        <v>0.2098934902370956</v>
+        <v>0.1087346967966542</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.6753041710329</v>
+        <v>2.161562666666667</v>
       </c>
       <c r="H18">
-        <v>3.6753041710329</v>
+        <v>6.484688</v>
       </c>
       <c r="I18">
-        <v>0.2115502517417903</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="J18">
-        <v>0.2115502517417903</v>
+        <v>0.1099539346301649</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.141152740756</v>
+        <v>0.03515933333333333</v>
       </c>
       <c r="N18">
-        <v>0.141152740756</v>
+        <v>0.105478</v>
       </c>
       <c r="O18">
-        <v>0.002612086008124448</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="P18">
-        <v>0.002612086008124448</v>
+        <v>0.0005469857139744193</v>
       </c>
       <c r="Q18">
-        <v>0.5187792568532524</v>
+        <v>0.07599910231822223</v>
       </c>
       <c r="R18">
-        <v>0.5187792568532524</v>
+        <v>0.6839919208640001</v>
       </c>
       <c r="S18">
-        <v>0.0005525874525899351</v>
+        <v>6.014323143797739E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005525874525899351</v>
+        <v>6.014323143797739E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.161562666666667</v>
+      </c>
+      <c r="H19">
+        <v>6.484688</v>
+      </c>
+      <c r="I19">
+        <v>0.1099539346301649</v>
+      </c>
+      <c r="J19">
+        <v>0.1099539346301649</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03516833333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.105505</v>
+      </c>
+      <c r="O19">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="P19">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="Q19">
+        <v>0.07601855638222223</v>
+      </c>
+      <c r="R19">
+        <v>0.68416700744</v>
+      </c>
+      <c r="S19">
+        <v>6.015862675499919E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.015862675499919E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.161562666666667</v>
+      </c>
+      <c r="H20">
+        <v>6.484688</v>
+      </c>
+      <c r="I20">
+        <v>0.1099539346301649</v>
+      </c>
+      <c r="J20">
+        <v>0.1099539346301649</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1628933333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.48868</v>
+      </c>
+      <c r="O20">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="P20">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="Q20">
+        <v>0.3521041479822222</v>
+      </c>
+      <c r="R20">
+        <v>3.16893733184</v>
+      </c>
+      <c r="S20">
+        <v>0.0002786438341560401</v>
+      </c>
+      <c r="T20">
+        <v>0.0002786438341560401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.161562666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.484688</v>
+      </c>
+      <c r="I21">
+        <v>0.1099539346301649</v>
+      </c>
+      <c r="J21">
+        <v>0.1099539346301649</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4795373333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.438612</v>
+      </c>
+      <c r="O21">
+        <v>0.007460325489222087</v>
+      </c>
+      <c r="P21">
+        <v>0.007460325489222088</v>
+      </c>
+      <c r="Q21">
+        <v>1.036549997006222</v>
+      </c>
+      <c r="R21">
+        <v>9.328949973056</v>
+      </c>
+      <c r="S21">
+        <v>0.0008202921411616785</v>
+      </c>
+      <c r="T21">
+        <v>0.0008202921411616786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.107047</v>
+      </c>
+      <c r="H22">
+        <v>6.321141</v>
+      </c>
+      <c r="I22">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J22">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>63.565581</v>
+      </c>
+      <c r="N22">
+        <v>190.696743</v>
+      </c>
+      <c r="O22">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="P22">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="Q22">
+        <v>133.935666749307</v>
+      </c>
+      <c r="R22">
+        <v>1205.421000743763</v>
+      </c>
+      <c r="S22">
+        <v>0.1059923546119566</v>
+      </c>
+      <c r="T22">
+        <v>0.1059923546119566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.107047</v>
+      </c>
+      <c r="H23">
+        <v>6.321141</v>
+      </c>
+      <c r="I23">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J23">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03515933333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.105478</v>
+      </c>
+      <c r="O23">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="P23">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="Q23">
+        <v>0.07408236782200001</v>
+      </c>
+      <c r="R23">
+        <v>0.666741310398</v>
+      </c>
+      <c r="S23">
+        <v>5.862638975307492E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.86263897530749E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.107047</v>
+      </c>
+      <c r="H24">
+        <v>6.321141</v>
+      </c>
+      <c r="I24">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J24">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03516833333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.105505</v>
+      </c>
+      <c r="O24">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="P24">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="Q24">
+        <v>0.07410133124500001</v>
+      </c>
+      <c r="R24">
+        <v>0.6669119812049999</v>
+      </c>
+      <c r="S24">
+        <v>5.864139679267875E-05</v>
+      </c>
+      <c r="T24">
+        <v>5.864139679267874E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.107047</v>
+      </c>
+      <c r="H25">
+        <v>6.321141</v>
+      </c>
+      <c r="I25">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J25">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1628933333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.48868</v>
+      </c>
+      <c r="O25">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="P25">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="Q25">
+        <v>0.34322390932</v>
+      </c>
+      <c r="R25">
+        <v>3.08901518388</v>
+      </c>
+      <c r="S25">
+        <v>0.0002716163005037321</v>
+      </c>
+      <c r="T25">
+        <v>0.000271616300503732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.6753041710329</v>
-      </c>
-      <c r="H19">
-        <v>3.6753041710329</v>
-      </c>
-      <c r="I19">
-        <v>0.2115502517417903</v>
-      </c>
-      <c r="J19">
-        <v>0.2115502517417903</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.282049823961368</v>
-      </c>
-      <c r="N19">
-        <v>0.282049823961368</v>
-      </c>
-      <c r="O19">
-        <v>0.005219440974490156</v>
-      </c>
-      <c r="P19">
-        <v>0.005219440974490156</v>
-      </c>
-      <c r="Q19">
-        <v>1.036618894444311</v>
-      </c>
-      <c r="R19">
-        <v>1.036618894444311</v>
-      </c>
-      <c r="S19">
-        <v>0.001104174052104808</v>
-      </c>
-      <c r="T19">
-        <v>0.001104174052104808</v>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.107047</v>
+      </c>
+      <c r="H26">
+        <v>6.321141</v>
+      </c>
+      <c r="I26">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="J26">
+        <v>0.1071808426715449</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4795373333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.438612</v>
+      </c>
+      <c r="O26">
+        <v>0.007460325489222087</v>
+      </c>
+      <c r="P26">
+        <v>0.007460325489222088</v>
+      </c>
+      <c r="Q26">
+        <v>1.010407699588</v>
+      </c>
+      <c r="R26">
+        <v>9.093669296291999</v>
+      </c>
+      <c r="S26">
+        <v>0.000799603972538829</v>
+      </c>
+      <c r="T26">
+        <v>0.000799603972538829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H27">
+        <v>11.457815</v>
+      </c>
+      <c r="I27">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J27">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>63.565581</v>
+      </c>
+      <c r="N27">
+        <v>190.696743</v>
+      </c>
+      <c r="O27">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="P27">
+        <v>0.9889113760447804</v>
+      </c>
+      <c r="Q27">
+        <v>242.774222488505</v>
+      </c>
+      <c r="R27">
+        <v>2184.968002396545</v>
+      </c>
+      <c r="S27">
+        <v>0.1921236673186369</v>
+      </c>
+      <c r="T27">
+        <v>0.1921236673186369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H28">
+        <v>11.457815</v>
+      </c>
+      <c r="I28">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J28">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.03515933333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.105478</v>
+      </c>
+      <c r="O28">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="P28">
+        <v>0.0005469857139744193</v>
+      </c>
+      <c r="Q28">
+        <v>0.1342830456188889</v>
+      </c>
+      <c r="R28">
+        <v>1.20854741057</v>
+      </c>
+      <c r="S28">
+        <v>0.0001062672590136224</v>
+      </c>
+      <c r="T28">
+        <v>0.0001062672590136224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H29">
+        <v>11.457815</v>
+      </c>
+      <c r="I29">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J29">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.03516833333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.105505</v>
+      </c>
+      <c r="O29">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="P29">
+        <v>0.0005471257300372695</v>
+      </c>
+      <c r="Q29">
+        <v>0.1343174190638889</v>
+      </c>
+      <c r="R29">
+        <v>1.208856771575</v>
+      </c>
+      <c r="S29">
+        <v>0.0001062944610462109</v>
+      </c>
+      <c r="T29">
+        <v>0.0001062944610462109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H30">
+        <v>11.457815</v>
+      </c>
+      <c r="I30">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J30">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.1628933333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.48868</v>
+      </c>
+      <c r="O30">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="P30">
+        <v>0.00253418702198581</v>
+      </c>
+      <c r="Q30">
+        <v>0.622133892688889</v>
+      </c>
+      <c r="R30">
+        <v>5.5992050342</v>
+      </c>
+      <c r="S30">
+        <v>0.0004923366401977378</v>
+      </c>
+      <c r="T30">
+        <v>0.0004923366401977377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.819271666666667</v>
+      </c>
+      <c r="H31">
+        <v>11.457815</v>
+      </c>
+      <c r="I31">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="J31">
+        <v>0.1942779423643085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4795373333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.438612</v>
+      </c>
+      <c r="O31">
+        <v>0.007460325489222087</v>
+      </c>
+      <c r="P31">
+        <v>0.007460325489222088</v>
+      </c>
+      <c r="Q31">
+        <v>1.831483350308889</v>
+      </c>
+      <c r="R31">
+        <v>16.48335015278</v>
+      </c>
+      <c r="S31">
+        <v>0.00144937668541407</v>
+      </c>
+      <c r="T31">
+        <v>0.00144937668541407</v>
       </c>
     </row>
   </sheetData>
